--- a/опт и Краснодар/2023/10,23/31,10,23 Кр_РнД_Сч ЗПФ/дв 31,10,23 кррсч зпф.xlsx
+++ b/опт и Краснодар/2023/10,23/31,10,23 Кр_РнД_Сч ЗПФ/дв 31,10,23 кррсч зпф.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\31,10,23 Кр_РнД_Сч ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\опт и Краснодар\2023\10,23\31,10,23 Кр_РнД_Сч ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5075A3C2-9870-4196-A193-DE130E009AD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9866C382-5D51-4416-B4DE-DE76BF925486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$3:$Y$60</definedName>
@@ -295,10 +296,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -2982,6 +2987,483 @@
         <row r="56">
           <cell r="R56" t="str">
             <v>скорей всего завод не отгрузит</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="TDSheet"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Период: 30.10.2023 - 06.11.2023</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Склад</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Номенклатура</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>Ед. изм.</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Основной склад ЗАМОРОЗКА ПОКОМ (Краснодар)</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Вареники замороженные постные "Благолепные" с картофелем и луком ВЕС  ПОКОМ</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Готовые чебупели острые с мясом Горячая штучка 0,3 кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Готовые чебупели с ветчиной и сыром Горячая штучка 0,3кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Готовые чебупели сочные с мясом ТМ Горячая штучка  0,3кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Готовые чебуреки с мясом ТМ Горячая штучка 0,09 кг флоу-пак ПОКОМ</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Жар-боллы с курочкой и сыром, ВЕС  ПОКОМ</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Жар-ладушки с мясом. ВЕС  ПОКОМ</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Жар-ладушки с яблоком и грушей, ВЕС  ПОКОМ</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Жар-мени рубленые в тесте куриные жареные. ВЕС  ПОКОМ</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Круггетсы с сырным соусом ТМ Горячая штучка 0,25 кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Круггетсы сочные ТМ Горячая штучка ТС Круггетсы  ВЕС(3 кг)  ПОКОМ</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Круггетсы сочные ТМ Горячая штучка ТС Круггетсы 0,25 кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Мини-сосиски в тесте "Фрайпики" 1,8кг ВЕС,  ПОКОМ</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>Наггетсы из печи 0,25кг ТМ Вязанка ТС Няняггетсы Сливушки замор.  ПОКОМ</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Наггетсы Нагетосы Сочная курочка в хрустящей панировке ТМ Горячая штучка 0,25 кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>Наггетсы Нагетосы Сочная курочка ТМ Горячая штучка 0,25 кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>Наггетсы с индейкой 0,25кг ТМ Вязанка ТС Няняггетсы Сливушки НД2 замор.  ПОКОМ</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Наггетсы хрустящие п/ф ВЕС ПОКОМ</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Пельмени Grandmeni с говядиной ТМ Горячая  0,75 кг. ПОКОМ</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>Пельмени Бигбули #МЕГАВКУСИЩЕ с сочной грудинкой 0,43 кг  ПОКОМ</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>Пельмени Бигбули #МЕГАВКУСИЩЕ с сочной грудинкой 0,9 кг  ПОКОМ</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>Пельмени Бигбули с мясом, Горячая штучка 0,43кг  ПОКОМ</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>Пельмени Бигбули с мясом, Горячая штучка 0,9кг  ПОКОМ</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>Пельмени Бигбули со сливоч.маслом (Мегамаслище) ТМ БУЛЬМЕНИ сфера 0,43. замор. ПОКОМ</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>Пельмени Бигбули со сливочным маслом #МЕГАМАСЛИЩЕ Горячая штучка 0,9 кг  ПОКОМ</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>Пельмени Бульмени с говядиной и свининой 2,7кг Наваристые Горячая штучка ВЕС  ПОКОМ</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>Пельмени Бульмени с говядиной и свининой 5кг Наваристые Горячая штучка ВЕС  ПОКОМ</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>Пельмени Бульмени с говядиной и свининой Горячая шт. 0,9 кг  ПОКОМ</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>Пельмени Бульмени с говядиной и свининой Горячая штучка 0,43  ПОКОМ</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>Пельмени Бульмени с говядиной и свининой Горячая штучка 0,43 большие замор  ПОКОМ</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>Пельмени Бульмени со сливочным маслом Горячая штучка 0,9 кг  ПОКОМ</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>Пельмени Бульмени со сливочным маслом ТМ Горячая шт. 0,43 кг  ПОКОМ</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>Пельмени Быстромени сфера, ВЕС  ПОКОМ</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>Пельмени Зареченские сфера 5 кг.  ПОКОМ</v>
+          </cell>
+          <cell r="B39" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>Пельмени Мясорубские ТМ Стародворье фоупак равиоли 0,7 кг  ПОКОМ</v>
+          </cell>
+          <cell r="B40" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>Пельмени Отборные из свинины и говядины 0,9 кг ТМ Стародворье ТС Медвежье ушко  ПОКОМ</v>
+          </cell>
+          <cell r="B41" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>Пельмени Отборные с говядиной 0,43 кг ТМ Стародворье ТС Медвежье ушко</v>
+          </cell>
+          <cell r="B42" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>Пельмени Отборные с говядиной 0,9 кг НОВА ТМ Стародворье ТС Медвежье ушко  ПОКОМ</v>
+          </cell>
+          <cell r="B43" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>Пельмени Отборные с говядиной и свининой 0,43 кг ТМ Стародворье ТС Медвежье ушко</v>
+          </cell>
+          <cell r="B44" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>Пельмени С говядиной и свининой, ВЕС, сфера пуговки Мясная Галерея  ПОКОМ</v>
+          </cell>
+          <cell r="B45" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>Пельмени Со свининой и говядиной ТМ Особый рецепт Любимая ложка 1,0 кг  ПОКОМ</v>
+          </cell>
+          <cell r="B46" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>Пельмени Сочные сфера 0,9 кг ТМ Стародворье ПОКОМ</v>
+          </cell>
+          <cell r="B47" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>Пельмени Сочные ТМ Стародворье.сфера 0,43 кг ПОКОМ</v>
+          </cell>
+          <cell r="B48" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>Фрайпицца с ветчиной и грибами 3,0 кг. ВЕС.  ПОКОМ</v>
+          </cell>
+          <cell r="B49" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>Хинкали Классические хинкали ВЕС,  ПОКОМ</v>
+          </cell>
+          <cell r="B50" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>Хотстеры ТМ Горячая штучка ТС Хотстеры 0,25 кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B51" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>Чебупай сочное яблоко ТМ Горячая штучка 0,2 кг зам.  ПОКОМ</v>
+          </cell>
+          <cell r="B52" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>Чебупай спелая вишня ТМ Горячая штучка 0,2 кг зам.  ПОКОМ</v>
+          </cell>
+          <cell r="B53" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>Чебупели с мясом ТМ Горячая штучка 0,48 кг XXL зам. ПОКОМ</v>
+          </cell>
+          <cell r="B54" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>Чебупицца курочка по-итальянски Горячая штучка 0,25 кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B55" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>Чебупицца Пепперони ТМ Горячая штучка ТС Чебупицца 0.25кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B56" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>Чебуреки с мясом, грибами и картофелем. ВЕС  ПОКОМ</v>
+          </cell>
+          <cell r="B57" t="str">
+            <v>кг</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>Чебуречище ТМ Горячая штучка .0,14 кг зам. ПОКОМ</v>
+          </cell>
+          <cell r="B58" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>БОНУС_Готовые чебупели сочные с мясом ТМ Горячая штучка  0,3кг зам    ПОКОМ</v>
+          </cell>
+          <cell r="B59" t="str">
+            <v>шт</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>БОНУС_Пельмени Отборные из свинины и говядины 0,9 кг ТМ Стародворье ТС Медвежье ушко  ПОКОМ</v>
+          </cell>
+          <cell r="B60" t="str">
+            <v>шт</v>
           </cell>
         </row>
       </sheetData>
@@ -3317,9 +3799,9 @@
   </sheetPr>
   <dimension ref="A1:AD60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA39" sqref="AA39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A57" sqref="A57:B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -3347,18 +3829,18 @@
     <col min="31" max="16384" width="10.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:25" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:25" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -3423,7 +3905,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -3466,7 +3948,7 @@
       <c r="X4" s="15"/>
       <c r="Y4" s="11"/>
     </row>
-    <row r="5" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
@@ -3540,7 +4022,7 @@
         <v>660.10000000000014</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
         <v>12</v>
       </c>
@@ -3589,8 +4071,12 @@
         <f>X6*W6*G6</f>
         <v>0</v>
       </c>
+      <c r="AA6" s="26" t="str">
+        <f>VLOOKUP(A6,[2]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
@@ -3634,15 +4120,19 @@
         <v>12</v>
       </c>
       <c r="X7" s="22">
-        <f t="shared" ref="X7:X60" si="5">M7/W7</f>
+        <f t="shared" ref="X7:X56" si="5">M7/W7</f>
         <v>0</v>
       </c>
       <c r="Y7" s="2">
-        <f t="shared" ref="Y7:Y60" si="6">X7*W7*G7</f>
-        <v>0</v>
+        <f t="shared" ref="Y7:Y58" si="6">X7*W7*G7</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="26" t="str">
+        <f>VLOOKUP(A7,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
@@ -3697,8 +4187,12 @@
         <f t="shared" si="6"/>
         <v>43.199999999999996</v>
       </c>
+      <c r="AA8" s="26" t="str">
+        <f>VLOOKUP(A8,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
         <v>16</v>
       </c>
@@ -3754,8 +4248,12 @@
         <f t="shared" si="6"/>
         <v>46.8</v>
       </c>
+      <c r="AA9" s="26" t="str">
+        <f>VLOOKUP(A9,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
@@ -3808,8 +4306,12 @@
         <f t="shared" si="6"/>
         <v>10.799999999999999</v>
       </c>
+      <c r="AA10" s="26" t="str">
+        <f>VLOOKUP(A10,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>18</v>
       </c>
@@ -3860,8 +4362,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AA11" s="26" t="str">
+        <f>VLOOKUP(A11,[2]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>19</v>
       </c>
@@ -3912,8 +4418,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AA12" s="26" t="str">
+        <f>VLOOKUP(A12,[2]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="13" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>20</v>
       </c>
@@ -3962,8 +4472,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AA13" s="26" t="str">
+        <f>VLOOKUP(A13,[2]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="14" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>21</v>
       </c>
@@ -4014,8 +4528,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AA14" s="26" t="str">
+        <f>VLOOKUP(A14,[2]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="15" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>22</v>
       </c>
@@ -4068,8 +4586,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AA15" s="26" t="str">
+        <f>VLOOKUP(A15,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="16" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>23</v>
       </c>
@@ -4116,8 +4638,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AA16" s="26" t="str">
+        <f>VLOOKUP(A16,[2]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="17" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
@@ -4168,8 +4694,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AA17" s="26" t="str">
+        <f>VLOOKUP(A17,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="18" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>25</v>
       </c>
@@ -4219,8 +4749,12 @@
         <f t="shared" si="6"/>
         <v>39.6</v>
       </c>
+      <c r="AA18" s="26" t="str">
+        <f>VLOOKUP(A18,[2]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="19" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>26</v>
       </c>
@@ -4273,8 +4807,12 @@
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
+      <c r="AA19" s="26" t="str">
+        <f>VLOOKUP(A19,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="20" spans="1:25" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>27</v>
       </c>
@@ -4327,8 +4865,12 @@
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
+      <c r="AA20" s="26" t="str">
+        <f>VLOOKUP(A20,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="21" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
@@ -4381,8 +4923,12 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
+      <c r="AA21" s="26" t="str">
+        <f>VLOOKUP(A21,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="22" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>29</v>
       </c>
@@ -4430,8 +4976,12 @@
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
+      <c r="AA22" s="26" t="str">
+        <f>VLOOKUP(A22,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="23" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>30</v>
       </c>
@@ -4480,8 +5030,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AA23" s="26" t="str">
+        <f>VLOOKUP(A23,[2]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="24" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>31</v>
       </c>
@@ -4534,8 +5088,12 @@
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
+      <c r="AA24" s="26" t="str">
+        <f>VLOOKUP(A24,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="25" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>32</v>
       </c>
@@ -4586,8 +5144,12 @@
         <f t="shared" si="6"/>
         <v>6.88</v>
       </c>
+      <c r="AA25" s="26" t="str">
+        <f>VLOOKUP(A25,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="26" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>33</v>
       </c>
@@ -4636,8 +5198,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AA26" s="26" t="str">
+        <f>VLOOKUP(A26,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="27" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>34</v>
       </c>
@@ -4688,8 +5254,12 @@
         <f t="shared" si="6"/>
         <v>13.76</v>
       </c>
+      <c r="AA27" s="26" t="str">
+        <f>VLOOKUP(A27,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="28" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>35</v>
       </c>
@@ -4738,8 +5308,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AA28" s="26" t="str">
+        <f>VLOOKUP(A28,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="29" spans="1:25" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>36</v>
       </c>
@@ -4792,8 +5366,12 @@
         <f t="shared" si="6"/>
         <v>34.4</v>
       </c>
+      <c r="AA29" s="26" t="str">
+        <f>VLOOKUP(A29,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="30" spans="1:25" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>37</v>
       </c>
@@ -4844,8 +5422,12 @@
         <f t="shared" si="6"/>
         <v>14.4</v>
       </c>
+      <c r="AA30" s="26" t="str">
+        <f>VLOOKUP(A30,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="31" spans="1:25" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>38</v>
       </c>
@@ -4896,8 +5478,12 @@
         <f t="shared" si="6"/>
         <v>35.1</v>
       </c>
+      <c r="AA31" s="26" t="str">
+        <f>VLOOKUP(A31,[2]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="32" spans="1:25" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>39</v>
       </c>
@@ -4948,8 +5534,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AA32" s="26" t="str">
+        <f>VLOOKUP(A32,[2]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="33" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>40</v>
       </c>
@@ -5004,8 +5594,12 @@
         <f t="shared" si="6"/>
         <v>50.4</v>
       </c>
+      <c r="AA33" s="26" t="str">
+        <f>VLOOKUP(A33,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="34" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>41</v>
       </c>
@@ -5056,8 +5650,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AA34" s="26" t="str">
+        <f>VLOOKUP(A34,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="35" spans="1:25" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>42</v>
       </c>
@@ -5108,8 +5706,12 @@
         <f t="shared" si="6"/>
         <v>27.52</v>
       </c>
+      <c r="AA35" s="26" t="str">
+        <f>VLOOKUP(A35,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="36" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>43</v>
       </c>
@@ -5164,8 +5766,12 @@
         <f t="shared" si="6"/>
         <v>93.600000000000009</v>
       </c>
+      <c r="AA36" s="26" t="str">
+        <f>VLOOKUP(A36,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="37" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>44</v>
       </c>
@@ -5220,8 +5826,12 @@
         <f t="shared" si="6"/>
         <v>55.04</v>
       </c>
+      <c r="AA37" s="26" t="str">
+        <f>VLOOKUP(A37,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="38" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>45</v>
       </c>
@@ -5270,8 +5880,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AA38" s="26" t="str">
+        <f>VLOOKUP(A38,[2]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="39" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>46</v>
       </c>
@@ -5318,8 +5932,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AA39" s="26" t="str">
+        <f>VLOOKUP(A39,[2]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="40" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>47</v>
       </c>
@@ -5368,8 +5986,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AA40" s="26" t="str">
+        <f>VLOOKUP(A40,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="41" spans="1:25" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>48</v>
       </c>
@@ -5421,8 +6043,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AA41" s="26" t="str">
+        <f>VLOOKUP(A41,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="42" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>49</v>
       </c>
@@ -5473,8 +6099,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AA42" s="26" t="str">
+        <f>VLOOKUP(A42,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="43" spans="1:25" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>50</v>
       </c>
@@ -5527,8 +6157,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AA43" s="26" t="str">
+        <f>VLOOKUP(A43,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="44" spans="1:25" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>51</v>
       </c>
@@ -5581,8 +6215,12 @@
         <f t="shared" si="6"/>
         <v>6.88</v>
       </c>
+      <c r="AA44" s="26" t="str">
+        <f>VLOOKUP(A44,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="45" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>52</v>
       </c>
@@ -5633,8 +6271,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AA45" s="26" t="str">
+        <f>VLOOKUP(A45,[2]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
-    <row r="46" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>53</v>
       </c>
@@ -5685,8 +6327,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AA46" s="26" t="str">
+        <f>VLOOKUP(A46,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="47" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>54</v>
       </c>
@@ -5737,8 +6383,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AA47" s="26" t="str">
+        <f>VLOOKUP(A47,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
-    <row r="48" spans="1:25" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>55</v>
       </c>
@@ -5788,6 +6438,10 @@
       <c r="Y48" s="2">
         <f t="shared" si="6"/>
         <v>13.76</v>
+      </c>
+      <c r="AA48" s="26" t="str">
+        <f>VLOOKUP(A48,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -5839,6 +6493,10 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AA49" s="26" t="str">
+        <f>VLOOKUP(A49,[2]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
     <row r="50" spans="1:30" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
@@ -5887,6 +6545,10 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AA50" s="26" t="str">
+        <f>VLOOKUP(A50,[2]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
     <row r="51" spans="1:30" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
@@ -5941,6 +6603,10 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AA51" s="26" t="str">
+        <f>VLOOKUP(A51,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
     <row r="52" spans="1:30" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
@@ -5993,6 +6659,10 @@
         <f t="shared" si="6"/>
         <v>13.200000000000001</v>
       </c>
+      <c r="AA52" s="26" t="str">
+        <f>VLOOKUP(A52,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
     <row r="53" spans="1:30" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
@@ -6044,6 +6714,10 @@
       <c r="Y53" s="2">
         <f t="shared" si="6"/>
         <v>18</v>
+      </c>
+      <c r="AA53" s="26" t="str">
+        <f>VLOOKUP(A53,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -6097,6 +6771,10 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AA54" s="26" t="str">
+        <f>VLOOKUP(A54,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
     <row r="55" spans="1:30" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
@@ -6149,6 +6827,10 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AA55" s="26" t="str">
+        <f>VLOOKUP(A55,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
     <row r="56" spans="1:30" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
@@ -6201,6 +6883,10 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AA56" s="26" t="str">
+        <f>VLOOKUP(A56,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
+      </c>
     </row>
     <row r="57" spans="1:30" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
@@ -6253,6 +6939,10 @@
         <f t="shared" si="6"/>
         <v>43.2</v>
       </c>
+      <c r="AA57" s="26" t="str">
+        <f>VLOOKUP(A57,[2]TDSheet!$A:$B,2,0)</f>
+        <v>кг</v>
+      </c>
     </row>
     <row r="58" spans="1:30" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
@@ -6306,6 +6996,10 @@
       <c r="Y58" s="2">
         <f t="shared" si="6"/>
         <v>21.560000000000002</v>
+      </c>
+      <c r="AA58" s="26" t="str">
+        <f>VLOOKUP(A58,[2]TDSheet!$A:$B,2,0)</f>
+        <v>шт</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
